--- a/7rmart/src/test/resources/Data1.xlsx
+++ b/7rmart/src/test/resources/Data1.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\7rmart\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15140" windowHeight="2500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="SubCategory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="C1:I19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -58,9 +54,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>new user</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -101,6 +94,12 @@
   </si>
   <si>
     <t>Iphone</t>
+  </si>
+  <si>
+    <t>neww user1</t>
+  </si>
+  <si>
+    <t>amall</t>
   </si>
 </sst>
 </file>
@@ -431,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,19 +464,19 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -491,19 +490,19 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>25896</v>
@@ -542,19 +541,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -562,10 +561,10 @@
         <v>123456</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,12 +596,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
